--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3011.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3011.xlsx
@@ -354,7 +354,7 @@
         <v>2.4007278814266</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.31412798588772</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3011.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3011.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.171584146947687</v>
+        <v>1.240043520927429</v>
       </c>
       <c r="B1">
-        <v>2.4007278814266</v>
+        <v>1.598049283027649</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.169703245162964</v>
       </c>
       <c r="D1">
-        <v>2.31412798588772</v>
+        <v>5.964247226715088</v>
       </c>
       <c r="E1">
-        <v>1.201862794045895</v>
+        <v>3.051313638687134</v>
       </c>
     </row>
   </sheetData>
